--- a/GA_bNa_bCa_NaK/Errors1.xlsx
+++ b/GA_bNa_bCa_NaK/Errors1.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23884.85960370554</v>
+        <v>479788.9581643588</v>
       </c>
       <c r="B2" t="n">
-        <v>468596.6910663605</v>
+        <v>112825.7043079822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1691.157520142106</v>
+        <v>472243.3938363738</v>
       </c>
       <c r="B3" t="n">
-        <v>441193.4933059647</v>
+        <v>62774.94602502688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1691.157520142106</v>
+        <v>472511.2414605888</v>
       </c>
       <c r="B4" t="n">
-        <v>441612.4829847984</v>
+        <v>85849.0756258824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3928.088829304008</v>
+        <v>430498.6349298011</v>
       </c>
       <c r="B5" t="n">
-        <v>430610.9426495624</v>
+        <v>36846.79780799575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2181.10587090253</v>
+        <v>419878.4384319716</v>
       </c>
       <c r="B6" t="n">
-        <v>422593.7602442526</v>
+        <v>9068.274898384414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3027.803615176716</v>
+        <v>391593.8908092735</v>
       </c>
       <c r="B7" t="n">
-        <v>413927.4285739198</v>
+        <v>9150.463175676507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>462.1084998696588</v>
+        <v>398596.6581943679</v>
       </c>
       <c r="B8" t="n">
-        <v>379506.0832743288</v>
+        <v>27764.62483135172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1005.488196445047</v>
+        <v>423275.9481106275</v>
       </c>
       <c r="B9" t="n">
-        <v>384482.4368170334</v>
+        <v>56325.17860125468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>939.8228023790404</v>
+        <v>359206.2136289701</v>
       </c>
       <c r="B10" t="n">
-        <v>345675.959905017</v>
+        <v>13840.46614759194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>939.8228023790404</v>
+        <v>384963.5646082439</v>
       </c>
       <c r="B11" t="n">
-        <v>327911.5593709478</v>
+        <v>22086.37451370752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1177.651985315709</v>
+        <v>341058.2244474405</v>
       </c>
       <c r="B12" t="n">
-        <v>281772.680087386</v>
+        <v>20302.6272714474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>971.878822800214</v>
+        <v>312364.9365030089</v>
       </c>
       <c r="B13" t="n">
-        <v>295957.3603594369</v>
+        <v>12843.61275983782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1865.691179996371</v>
+        <v>317643.0276593966</v>
       </c>
       <c r="B14" t="n">
-        <v>240072.2712362988</v>
+        <v>14393.60007157881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1106.730124903613</v>
+        <v>250489.8452405725</v>
       </c>
       <c r="B15" t="n">
-        <v>211535.6902722707</v>
+        <v>14448.61008835026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1666.94623222315</v>
+        <v>234582.6816478305</v>
       </c>
       <c r="B16" t="n">
-        <v>172964.1508686763</v>
+        <v>14448.61008835026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>592.2040638696838</v>
+        <v>258615.2808428017</v>
       </c>
       <c r="B17" t="n">
-        <v>162465.8182861802</v>
+        <v>11162.85880817652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>499.5732018484515</v>
+        <v>232256.6881325153</v>
       </c>
       <c r="B18" t="n">
-        <v>104301.7281131996</v>
+        <v>18507.71258503466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>868.0767763628891</v>
+        <v>217417.8487241586</v>
       </c>
       <c r="B19" t="n">
-        <v>106221.1795888231</v>
+        <v>3373.65687747831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>376.2266693264775</v>
+        <v>223653.7465072773</v>
       </c>
       <c r="B20" t="n">
-        <v>82066.72857245429</v>
+        <v>6238.466269547874</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1125.438425202729</v>
+        <v>205063.6303502903</v>
       </c>
       <c r="B21" t="n">
-        <v>88458.67418129196</v>
+        <v>13372.66539459436</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>542.5854399371514</v>
+        <v>218079.8453547591</v>
       </c>
       <c r="B22" t="n">
-        <v>99221.92223802596</v>
+        <v>11254.26741452387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1033.196738918516</v>
+        <v>159500.7448810786</v>
       </c>
       <c r="B23" t="n">
-        <v>71103.31373395902</v>
+        <v>7143.447969306171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1180.500156205334</v>
+        <v>169167.6227945025</v>
       </c>
       <c r="B24" t="n">
-        <v>71490.55802604364</v>
+        <v>7143.447969306171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1290.190725780233</v>
+        <v>173453.0209272912</v>
       </c>
       <c r="B25" t="n">
-        <v>70522.14323710409</v>
+        <v>3909.466519500318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1221.828106520622</v>
+        <v>148196.9680131752</v>
       </c>
       <c r="B26" t="n">
-        <v>74376.56721731405</v>
+        <v>3922.737718399989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>779.1168974242693</v>
+        <v>132389.0073180167</v>
       </c>
       <c r="B27" t="n">
-        <v>83542.19674411541</v>
+        <v>4105.124364111766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>466.2392191546802</v>
+        <v>146198.9014011926</v>
       </c>
       <c r="B28" t="n">
-        <v>60377.30442555392</v>
+        <v>4251.106581919993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>843.895502428673</v>
+        <v>156739.5839216216</v>
       </c>
       <c r="B29" t="n">
-        <v>86908.90189268181</v>
+        <v>2877.754890706762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>393.0832624151689</v>
+        <v>145481.2109134078</v>
       </c>
       <c r="B30" t="n">
-        <v>67619.93220736268</v>
+        <v>2849.908649544403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>490.532950893246</v>
+        <v>128567.9070172312</v>
       </c>
       <c r="B31" t="n">
-        <v>72794.67302594047</v>
+        <v>4016.698854869523</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>480.242152997978</v>
+        <v>110996.8366250714</v>
       </c>
       <c r="B32" t="n">
-        <v>49123.60867091658</v>
+        <v>3369.341842125621</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>376.083202030263</v>
+        <v>142934.4774241958</v>
       </c>
       <c r="B33" t="n">
-        <v>76312.51870439631</v>
+        <v>3439.768254886909</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>439.3567326063468</v>
+        <v>140150.390418016</v>
       </c>
       <c r="B34" t="n">
-        <v>27575.29105402187</v>
+        <v>4377.234188618687</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>332.6895659596742</v>
+        <v>116471.1166375473</v>
       </c>
       <c r="B35" t="n">
-        <v>56051.14457489255</v>
+        <v>2706.349375815338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>335.3001638830507</v>
+        <v>126157.7357996458</v>
       </c>
       <c r="B36" t="n">
-        <v>68109.17133734656</v>
+        <v>3547.279165660231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>425.8457129005118</v>
+        <v>89259.76622133907</v>
       </c>
       <c r="B37" t="n">
-        <v>65964.4033503798</v>
+        <v>2521.961584517005</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>399.0402380499193</v>
+        <v>118807.1779963521</v>
       </c>
       <c r="B38" t="n">
-        <v>80819.20643417542</v>
+        <v>3037.329335847127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>414.77141583142</v>
+        <v>81371.60378537296</v>
       </c>
       <c r="B39" t="n">
-        <v>64870.41918213426</v>
+        <v>2627.971797342</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>439.1975283344157</v>
+        <v>74309.91368474302</v>
       </c>
       <c r="B40" t="n">
-        <v>40164.92662001518</v>
+        <v>2784.413200500193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>374.6098187304639</v>
+        <v>62530.30223317578</v>
       </c>
       <c r="B41" t="n">
-        <v>70540.00682528941</v>
+        <v>3048.655423952282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>389.1518640369203</v>
+        <v>71257.85627315272</v>
       </c>
       <c r="B42" t="n">
-        <v>44432.62261371841</v>
+        <v>2528.279395828676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>389.1518640369203</v>
+        <v>77376.827067035</v>
       </c>
       <c r="B43" t="n">
-        <v>46078.55763515815</v>
+        <v>2303.611080688136</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>366.6327871174709</v>
+        <v>50865.2088540719</v>
       </c>
       <c r="B44" t="n">
-        <v>32352.64513910167</v>
+        <v>2525.217458258669</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>319.8999835972784</v>
+        <v>97503.91851667475</v>
       </c>
       <c r="B45" t="n">
-        <v>59271.25592859103</v>
+        <v>2163.688881616759</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>325.9358404058572</v>
+        <v>61748.25308510511</v>
       </c>
       <c r="B46" t="n">
-        <v>45515.21379174371</v>
+        <v>2480.859022576752</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>401.8749083457591</v>
+        <v>87527.01399489277</v>
       </c>
       <c r="B47" t="n">
-        <v>42711.36278168284</v>
+        <v>2140.473842268153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>313.04188078057</v>
+        <v>79513.19554309812</v>
       </c>
       <c r="B48" t="n">
-        <v>49173.33161305708</v>
+        <v>2070.262041551054</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>374.8982812219622</v>
+        <v>63834.07234173259</v>
       </c>
       <c r="B49" t="n">
-        <v>53927.87987103662</v>
+        <v>2421.145987475169</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>333.9996450946717</v>
+        <v>97291.41177181339</v>
       </c>
       <c r="B50" t="n">
-        <v>46904.3358915983</v>
+        <v>2378.40420440742</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>353.5574606866228</v>
+        <v>87271.95651431121</v>
       </c>
       <c r="B51" t="n">
-        <v>34130.09508861391</v>
+        <v>2275.562816940656</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>325.4649904954738</v>
+        <v>94330.90646163412</v>
       </c>
       <c r="B52" t="n">
-        <v>42009.11893027752</v>
+        <v>2360.244098697488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>341.4238655013423</v>
+        <v>57455.03899103122</v>
       </c>
       <c r="B53" t="n">
-        <v>43682.14702778386</v>
+        <v>1827.961423726577</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>361.2855535355277</v>
+        <v>82149.87346881408</v>
       </c>
       <c r="B54" t="n">
-        <v>56001.82222827756</v>
+        <v>2006.231142386363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>342.1734227391785</v>
+        <v>81340.95347769457</v>
       </c>
       <c r="B55" t="n">
-        <v>34543.46776245748</v>
+        <v>2006.231142386363</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>341.7630689744713</v>
+        <v>59620.40194455395</v>
       </c>
       <c r="B56" t="n">
-        <v>35481.56788704793</v>
+        <v>2061.97545251461</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>390.1229458143104</v>
+        <v>83229.70021553636</v>
       </c>
       <c r="B57" t="n">
-        <v>28125.42606244875</v>
+        <v>1506.56010789642</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>345.9058122042283</v>
+        <v>86572.33908622265</v>
       </c>
       <c r="B58" t="n">
-        <v>18963.69935518093</v>
+        <v>1615.206612242296</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>391.6933503407216</v>
+        <v>88189.66188593181</v>
       </c>
       <c r="B59" t="n">
-        <v>15447.65693234393</v>
+        <v>1474.561503529204</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>325.0222226258733</v>
+        <v>36605.47273602695</v>
       </c>
       <c r="B60" t="n">
-        <v>15194.11393390473</v>
+        <v>1586.607648201895</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>325.4404066967655</v>
+        <v>90540.38398341321</v>
       </c>
       <c r="B61" t="n">
-        <v>15140.529172662</v>
+        <v>1589.702954738017</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>323.5634086099488</v>
+        <v>108140.0649338757</v>
       </c>
       <c r="B62" t="n">
-        <v>23622.99736041778</v>
+        <v>1714.278222766307</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>411.9863660557728</v>
+        <v>87749.32567308845</v>
       </c>
       <c r="B63" t="n">
-        <v>33615.90089936341</v>
+        <v>1423.510648982242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>349.9369815258535</v>
+        <v>77161.35192895596</v>
       </c>
       <c r="B64" t="n">
-        <v>36339.13738883008</v>
+        <v>1610.99489502594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>360.5087646972707</v>
+        <v>81837.90294628275</v>
       </c>
       <c r="B65" t="n">
-        <v>22843.71102285518</v>
+        <v>1728.935974672264</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>364.9583523822241</v>
+        <v>57261.20610543245</v>
       </c>
       <c r="B66" t="n">
-        <v>74207.75962366427</v>
+        <v>1687.252184869195</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>408.2486092995349</v>
+        <v>53148.24186713951</v>
       </c>
       <c r="B67" t="n">
-        <v>73613.66283279427</v>
+        <v>1596.208043844228</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>364.5382733344642</v>
+        <v>57223.0904763899</v>
       </c>
       <c r="B68" t="n">
-        <v>55091.5306312988</v>
+        <v>1631.746982045755</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>395.543723412169</v>
+        <v>53301.73640582994</v>
       </c>
       <c r="B69" t="n">
-        <v>39439.54551759679</v>
+        <v>1753.399022822036</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>322.8563129939163</v>
+        <v>72517.39344414961</v>
       </c>
       <c r="B70" t="n">
-        <v>60385.11194955398</v>
+        <v>1696.800558218709</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>351.6465341145993</v>
+        <v>53689.99267282001</v>
       </c>
       <c r="B71" t="n">
-        <v>33540.29064020845</v>
+        <v>1866.99806041295</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>363.448324497133</v>
+        <v>35752.04011786317</v>
       </c>
       <c r="B72" t="n">
-        <v>58300.33114248618</v>
+        <v>1535.773385258312</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>453.7408061771012</v>
+        <v>48663.28367935983</v>
       </c>
       <c r="B73" t="n">
-        <v>60403.41150187549</v>
+        <v>1465.507612423388</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>411.48649811537</v>
+        <v>37554.28188164406</v>
       </c>
       <c r="B74" t="n">
-        <v>39472.09673258725</v>
+        <v>1633.794586684067</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>427.3591446117523</v>
+        <v>25731.33482629908</v>
       </c>
       <c r="B75" t="n">
-        <v>53746.1075351973</v>
+        <v>1758.535343982593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>394.7158298428772</v>
+        <v>18788.09140573662</v>
       </c>
       <c r="B76" t="n">
-        <v>57474.99544520926</v>
+        <v>1524.375147901755</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>438.7558668735853</v>
+        <v>21597.10519288755</v>
       </c>
       <c r="B77" t="n">
-        <v>47167.23178502202</v>
+        <v>1252.15642378151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>398.2318382291503</v>
+        <v>27437.03340411838</v>
       </c>
       <c r="B78" t="n">
-        <v>33658.23533174426</v>
+        <v>1635.806594284838</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>434.8771345946101</v>
+        <v>35788.9039428618</v>
       </c>
       <c r="B79" t="n">
-        <v>68368.94210964283</v>
+        <v>1455.862980546846</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>439.6059971711014</v>
+        <v>28877.80325254664</v>
       </c>
       <c r="B80" t="n">
-        <v>55420.52742874874</v>
+        <v>1396.385356641505</v>
       </c>
     </row>
   </sheetData>
